--- a/Fase 2/Documentacion Fase 2/MATRIZ RACI.xlsx
+++ b/Fase 2/Documentacion Fase 2/MATRIZ RACI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="44">
   <si>
     <t>Matriz de Responsabilidades RACI</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Apartado descarga material</t>
+  </si>
+  <si>
+    <t>Apartado Calendario</t>
+  </si>
+  <si>
+    <t>Apartado portal pago</t>
   </si>
 </sst>
 </file>
@@ -2160,78 +2166,154 @@
       <c r="A14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="A21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="A22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4"/>
